--- a/data-raw/res1C_focus.xlsx
+++ b/data-raw/res1C_focus.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zurp/Dropbox (Personal)/diss/analy/vid-coding/res1C-focus-hand. done/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zurp/Dropbox (Personal)/diss/analy/vid-coding/res1C-focus. done/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,19 +32,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="136">
   <si>
-    <t>Coder</t>
-  </si>
-  <si>
-    <t>Bin</t>
-  </si>
-  <si>
     <t>In</t>
   </si>
   <si>
     <t>Out</t>
-  </si>
-  <si>
-    <t>Code</t>
   </si>
   <si>
     <t>mdg</t>
@@ -462,6 +453,15 @@
   </si>
   <si>
     <t>11:55</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>coder</t>
   </si>
 </sst>
 </file>
@@ -1084,9 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE10D47-70A0-574D-B2E3-ED3263117924}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
@@ -1094,794 +1092,794 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F44" s="1"/>
     </row>
@@ -1919,9 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A5F639-D40E-E244-AF2B-FF9F367AD031}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
@@ -1929,578 +1925,578 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -2617,9 +2613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
@@ -2630,686 +2624,686 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F38" s="1"/>
     </row>
@@ -3323,9 +3317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
@@ -3333,773 +3325,773 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
